--- a/statistic.xlsx
+++ b/statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenghao/IdeaProjects/USRA2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92C175-BF84-2C4B-BFA7-7692FC4FF4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF500326-4471-F74A-82CB-E57E6956CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1040" windowWidth="37220" windowHeight="20560" xr2:uid="{4AE96709-8D9D-584A-A784-62DAC4B3B382}"/>
+    <workbookView xWindow="1180" yWindow="1040" windowWidth="37220" windowHeight="20560" activeTab="2" xr2:uid="{4AE96709-8D9D-584A-A784-62DAC4B3B382}"/>
   </bookViews>
   <sheets>
     <sheet name="Age_group" sheetId="3" r:id="rId1"/>
@@ -1262,31 +1262,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,14 +1283,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2DC140-9E94-A041-B69E-9C4AD3E7FD16}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -1725,23 +1725,23 @@
         <v>16</v>
       </c>
       <c r="N2" s="16">
-        <f>B26/$B$34</f>
+        <f t="shared" ref="N2:N9" si="0">B26/$B$34</f>
         <v>0.20052598232978744</v>
       </c>
       <c r="O2" s="16">
-        <f>D26/$D$34</f>
+        <f t="shared" ref="O2:O9" si="1">D26/$D$34</f>
         <v>0.21207056422218981</v>
       </c>
       <c r="P2" s="16">
-        <f>F26/$F$34</f>
+        <f t="shared" ref="P2:P9" si="2">F26/$F$34</f>
         <v>0.22034939227400338</v>
       </c>
       <c r="Q2" s="16">
-        <f>H26/$H$34</f>
+        <f t="shared" ref="Q2:Q9" si="3">H26/$H$34</f>
         <v>0.25194192089498951</v>
       </c>
       <c r="R2" s="16">
-        <f>J26/$J$34</f>
+        <f t="shared" ref="R2:R9" si="4">J26/$J$34</f>
         <v>0.1998188628090288</v>
       </c>
     </row>
@@ -1783,23 +1783,23 @@
         <v>14</v>
       </c>
       <c r="N3" s="16">
-        <f>B27/$B$34</f>
+        <f t="shared" si="0"/>
         <v>0.12548494972154367</v>
       </c>
       <c r="O3" s="16">
-        <f>D27/$D$34</f>
+        <f t="shared" si="1"/>
         <v>0.12891348593089372</v>
       </c>
       <c r="P3" s="16">
-        <f>F27/$F$34</f>
+        <f t="shared" si="2"/>
         <v>0.15102521525526985</v>
       </c>
       <c r="Q3" s="16">
-        <f>H27/$H$34</f>
+        <f t="shared" si="3"/>
         <v>0.1390149561629706</v>
       </c>
       <c r="R3" s="16">
-        <f>J27/$J$34</f>
+        <f t="shared" si="4"/>
         <v>0.1420392152279894</v>
       </c>
     </row>
@@ -1841,23 +1841,23 @@
         <v>54</v>
       </c>
       <c r="N4" s="16">
-        <f>B28/$B$34</f>
+        <f t="shared" si="0"/>
         <v>0.11852645127388164</v>
       </c>
       <c r="O4" s="16">
-        <f>D28/$D$34</f>
+        <f t="shared" si="1"/>
         <v>0.13385601399620936</v>
       </c>
       <c r="P4" s="16">
-        <f>F28/$F$34</f>
+        <f t="shared" si="2"/>
         <v>0.14022268925003858</v>
       </c>
       <c r="Q4" s="16">
-        <f>H28/$H$34</f>
+        <f t="shared" si="3"/>
         <v>0.15626951697090943</v>
       </c>
       <c r="R4" s="16">
-        <f>J28/$J$34</f>
+        <f t="shared" si="4"/>
         <v>0.14658088944203901</v>
       </c>
     </row>
@@ -1899,23 +1899,23 @@
         <v>55</v>
       </c>
       <c r="N5" s="16">
-        <f>B29/$B$34</f>
+        <f t="shared" si="0"/>
         <v>0.1233522518462595</v>
       </c>
       <c r="O5" s="16">
-        <f>D29/$D$34</f>
+        <f t="shared" si="1"/>
         <v>0.13146009622393934</v>
       </c>
       <c r="P5" s="16">
-        <f>F29/$F$34</f>
+        <f t="shared" si="2"/>
         <v>0.12382861555630049</v>
       </c>
       <c r="Q5" s="16">
-        <f>H29/$H$34</f>
+        <f t="shared" si="3"/>
         <v>0.13305204336663851</v>
       </c>
       <c r="R5" s="16">
-        <f>J29/$J$34</f>
+        <f t="shared" si="4"/>
         <v>0.1245900553734445</v>
       </c>
     </row>
@@ -1957,23 +1957,23 @@
         <v>56</v>
       </c>
       <c r="N6" s="16">
-        <f>B30/$B$34</f>
+        <f t="shared" si="0"/>
         <v>0.15050943625270433</v>
       </c>
       <c r="O6" s="16">
-        <f>D30/$D$34</f>
+        <f t="shared" si="1"/>
         <v>0.13907729989794432</v>
       </c>
       <c r="P6" s="16">
-        <f>F30/$F$34</f>
+        <f t="shared" si="2"/>
         <v>0.1388508311906328</v>
       </c>
       <c r="Q6" s="16">
-        <f>H30/$H$34</f>
+        <f t="shared" si="3"/>
         <v>0.12412935182403981</v>
       </c>
       <c r="R6" s="16">
-        <f>J30/$J$34</f>
+        <f t="shared" si="4"/>
         <v>0.13778619189245514</v>
       </c>
     </row>
@@ -2015,23 +2015,23 @@
         <v>57</v>
       </c>
       <c r="N7" s="16">
-        <f>B31/$B$34</f>
+        <f t="shared" si="0"/>
         <v>0.14732992877703704</v>
       </c>
       <c r="O7" s="16">
-        <f>D31/$D$34</f>
+        <f t="shared" si="1"/>
         <v>0.13263951013267239</v>
       </c>
       <c r="P7" s="16">
-        <f>F31/$F$34</f>
+        <f t="shared" si="2"/>
         <v>0.11706864591965384</v>
       </c>
       <c r="Q7" s="16">
-        <f>H31/$H$34</f>
+        <f t="shared" si="3"/>
         <v>0.10840781188898775</v>
       </c>
       <c r="R7" s="16">
-        <f>J31/$J$34</f>
+        <f t="shared" si="4"/>
         <v>0.12771613270149565</v>
       </c>
     </row>
@@ -2073,23 +2073,23 @@
         <v>58</v>
       </c>
       <c r="N8" s="16">
-        <f>B32/$B$34</f>
+        <f t="shared" si="0"/>
         <v>9.5905718956150396E-2</v>
       </c>
       <c r="O8" s="16">
-        <f>D32/$D$34</f>
+        <f t="shared" si="1"/>
         <v>8.4199562618457499E-2</v>
       </c>
       <c r="P8" s="16">
-        <f>F32/$F$34</f>
+        <f t="shared" si="2"/>
         <v>7.2502301156955551E-2</v>
       </c>
       <c r="Q8" s="16">
-        <f>H32/$H$34</f>
+        <f t="shared" si="3"/>
         <v>5.8971714206371248E-2</v>
       </c>
       <c r="R8" s="16">
-        <f>J32/$J$34</f>
+        <f t="shared" si="4"/>
         <v>8.1937505721403209E-2</v>
       </c>
     </row>
@@ -2131,23 +2131,23 @@
         <v>59</v>
       </c>
       <c r="N9" s="16">
-        <f>B33/$B$34</f>
+        <f t="shared" si="0"/>
         <v>3.8365280842635997E-2</v>
       </c>
       <c r="O9" s="16">
-        <f>D33/$D$34</f>
+        <f t="shared" si="1"/>
         <v>3.7783466977693539E-2</v>
       </c>
       <c r="P9" s="16">
-        <f>F33/$F$34</f>
+        <f t="shared" si="2"/>
         <v>3.6152309397145511E-2</v>
       </c>
       <c r="Q9" s="16">
-        <f>H33/$H$34</f>
+        <f t="shared" si="3"/>
         <v>2.8212684685093144E-2</v>
       </c>
       <c r="R9" s="16">
-        <f>J33/$J$34</f>
+        <f t="shared" si="4"/>
         <v>3.9531146832144252E-2</v>
       </c>
     </row>
@@ -2189,23 +2189,23 @@
         <v>15</v>
       </c>
       <c r="N10" s="16">
-        <f>C26/$C$34</f>
+        <f t="shared" ref="N10:N17" si="5">C26/$C$34</f>
         <v>0.18542601421297525</v>
       </c>
       <c r="O10" s="16">
-        <f>E26/$E$34</f>
+        <f t="shared" ref="O10:O17" si="6">E26/$E$34</f>
         <v>0.20312447524264779</v>
       </c>
       <c r="P10" s="16">
-        <f>G26/$G$34</f>
+        <f t="shared" ref="P10:P17" si="7">G26/$G$34</f>
         <v>0.20582682546899306</v>
       </c>
       <c r="Q10" s="16">
-        <f>I26/$I$34</f>
+        <f t="shared" ref="Q10:Q17" si="8">I26/$I$34</f>
         <v>0.24365410650626243</v>
       </c>
       <c r="R10" s="16">
-        <f>K26/$K$34</f>
+        <f t="shared" ref="R10:R17" si="9">K26/$K$34</f>
         <v>0.18597494365429762</v>
       </c>
     </row>
@@ -2247,23 +2247,23 @@
         <v>60</v>
       </c>
       <c r="N11" s="16">
-        <f>C27/$C$34</f>
+        <f t="shared" si="5"/>
         <v>0.11319809687116134</v>
       </c>
       <c r="O11" s="16">
-        <f>E27/$E$34</f>
+        <f t="shared" si="6"/>
         <v>0.11927221519436079</v>
       </c>
       <c r="P11" s="16">
-        <f>G27/$G$34</f>
+        <f t="shared" si="7"/>
         <v>0.13662715162264655</v>
       </c>
       <c r="Q11" s="16">
-        <f>I27/$I$34</f>
+        <f t="shared" si="8"/>
         <v>0.13004944792635928</v>
       </c>
       <c r="R11" s="16">
-        <f>K27/$K$34</f>
+        <f t="shared" si="9"/>
         <v>0.12938254413762573</v>
       </c>
     </row>
@@ -2305,23 +2305,23 @@
         <v>61</v>
       </c>
       <c r="N12" s="16">
-        <f>C28/$C$34</f>
+        <f t="shared" si="5"/>
         <v>0.11805593082405737</v>
       </c>
       <c r="O12" s="16">
-        <f>E28/$E$34</f>
+        <f t="shared" si="6"/>
         <v>0.12886058153376545</v>
       </c>
       <c r="P12" s="16">
-        <f>G28/$G$34</f>
+        <f t="shared" si="7"/>
         <v>0.13609903853178407</v>
       </c>
       <c r="Q12" s="16">
-        <f>I28/$I$34</f>
+        <f t="shared" si="8"/>
         <v>0.15376769056988257</v>
       </c>
       <c r="R12" s="16">
-        <f>K28/$K$34</f>
+        <f t="shared" si="9"/>
         <v>0.14148443043655479</v>
       </c>
     </row>
@@ -2363,23 +2363,23 @@
         <v>62</v>
       </c>
       <c r="N13" s="16">
-        <f>C29/$C$34</f>
+        <f t="shared" si="5"/>
         <v>0.12620205782459695</v>
       </c>
       <c r="O13" s="16">
-        <f>E29/$E$34</f>
+        <f t="shared" si="6"/>
         <v>0.1272021150753225</v>
       </c>
       <c r="P13" s="16">
-        <f>G29/$G$34</f>
+        <f t="shared" si="7"/>
         <v>0.12764976428253555</v>
       </c>
       <c r="Q13" s="16">
-        <f>I29/$I$34</f>
+        <f t="shared" si="8"/>
         <v>0.13098051173326322</v>
       </c>
       <c r="R13" s="16">
-        <f>K29/$K$34</f>
+        <f t="shared" si="9"/>
         <v>0.12787490815583785</v>
       </c>
     </row>
@@ -2421,23 +2421,23 @@
         <v>63</v>
       </c>
       <c r="N14" s="16">
-        <f>C30/$C$34</f>
+        <f t="shared" si="5"/>
         <v>0.15003794804706688</v>
       </c>
       <c r="O14" s="16">
-        <f>E30/$E$34</f>
+        <f t="shared" si="6"/>
         <v>0.13722148212000104</v>
       </c>
       <c r="P14" s="16">
-        <f>G30/$G$34</f>
+        <f t="shared" si="7"/>
         <v>0.13815623102532615</v>
       </c>
       <c r="Q14" s="16">
-        <f>I30/$I$34</f>
+        <f t="shared" si="8"/>
         <v>0.12366014769446576</v>
       </c>
       <c r="R14" s="16">
-        <f>K30/$K$34</f>
+        <f t="shared" si="9"/>
         <v>0.1422283347866985</v>
       </c>
     </row>
@@ -2479,23 +2479,23 @@
         <v>64</v>
       </c>
       <c r="N15" s="16">
-        <f>C31/$C$34</f>
+        <f t="shared" si="5"/>
         <v>0.14996697189102257</v>
       </c>
       <c r="O15" s="16">
-        <f>E31/$E$34</f>
+        <f t="shared" si="6"/>
         <v>0.13522320612282215</v>
       </c>
       <c r="P15" s="16">
-        <f>G31/$G$34</f>
+        <f t="shared" si="7"/>
         <v>0.12208939039934021</v>
       </c>
       <c r="Q15" s="16">
-        <f>I31/$I$34</f>
+        <f t="shared" si="8"/>
         <v>0.11061695920567528</v>
       </c>
       <c r="R15" s="16">
-        <f>K31/$K$34</f>
+        <f t="shared" si="9"/>
         <v>0.13414299816712033</v>
       </c>
     </row>
@@ -2537,23 +2537,23 @@
         <v>65</v>
       </c>
       <c r="N16" s="16">
-        <f>C32/$C$34</f>
+        <f t="shared" si="5"/>
         <v>0.10125635861670698</v>
       </c>
       <c r="O16" s="16">
-        <f>E32/$E$34</f>
+        <f t="shared" si="6"/>
         <v>9.1612604998115535E-2</v>
       </c>
       <c r="P16" s="16">
-        <f>G32/$G$34</f>
+        <f t="shared" si="7"/>
         <v>8.1085897922041572E-2</v>
       </c>
       <c r="Q16" s="16">
-        <f>I32/$I$34</f>
+        <f t="shared" si="8"/>
         <v>6.5201068306330573E-2</v>
       </c>
       <c r="R16" s="16">
-        <f>K32/$K$34</f>
+        <f t="shared" si="9"/>
         <v>8.7173312174065223E-2</v>
       </c>
     </row>
@@ -2595,23 +2595,23 @@
         <v>66</v>
       </c>
       <c r="N17" s="16">
-        <f>C33/$C$34</f>
+        <f t="shared" si="5"/>
         <v>5.585662171241268E-2</v>
       </c>
       <c r="O17" s="16">
-        <f>E33/$E$34</f>
+        <f t="shared" si="6"/>
         <v>5.7483319712964727E-2</v>
       </c>
       <c r="P17" s="16">
-        <f>G33/$G$34</f>
+        <f t="shared" si="7"/>
         <v>5.2465700747332873E-2</v>
       </c>
       <c r="Q17" s="16">
-        <f>I33/$I$34</f>
+        <f t="shared" si="8"/>
         <v>4.2070068057760854E-2</v>
       </c>
       <c r="R17" s="16">
-        <f>K33/$K$34</f>
+        <f t="shared" si="9"/>
         <v>5.1738528487799931E-2</v>
       </c>
     </row>
@@ -2862,43 +2862,43 @@
         <v>1</v>
       </c>
       <c r="B26" s="14">
-        <f t="shared" ref="B26:C26" si="0">B2+B3+B4+B5</f>
+        <f t="shared" ref="B26:C26" si="10">B2+B3+B4+B5</f>
         <v>241173</v>
       </c>
       <c r="C26" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>229901</v>
       </c>
       <c r="D26" s="14">
-        <f t="shared" ref="D26:K26" si="1">D2+D3+D4+D5</f>
+        <f t="shared" ref="D26:K26" si="11">D2+D3+D4+D5</f>
         <v>909120</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>870936</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1608460</v>
       </c>
       <c r="G26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1538304</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>889098</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>851815</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>512958</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>487747</v>
       </c>
       <c r="M26" s="2"/>
@@ -2913,43 +2913,43 @@
         <v>2</v>
       </c>
       <c r="B27" s="15">
-        <f t="shared" ref="B27:C27" si="2">B6+B7</f>
+        <f t="shared" ref="B27:C27" si="12">B6+B7</f>
         <v>150921</v>
       </c>
       <c r="C27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>140349</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" ref="D27:K27" si="3">D6+D7</f>
+        <f t="shared" ref="D27:K27" si="13">D6+D7</f>
         <v>552636</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>511403</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>1102422</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>1021121</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>490581</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>454653</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>364631</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>339325</v>
       </c>
       <c r="M27" s="2"/>
@@ -2964,43 +2964,43 @@
         <v>3</v>
       </c>
       <c r="B28" s="15">
-        <f t="shared" ref="B28:C28" si="4">B8+B9</f>
+        <f t="shared" ref="B28:C28" si="14">B8+B9</f>
         <v>142552</v>
       </c>
       <c r="C28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>146372</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" ref="D28:K28" si="5">D8+D9</f>
+        <f t="shared" ref="D28:K28" si="15">D8+D9</f>
         <v>573824</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>552515</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1023568</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1017174</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>551472</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>537572</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>376290</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>371064</v>
       </c>
       <c r="M28" s="2"/>
@@ -3015,43 +3015,43 @@
         <v>4</v>
       </c>
       <c r="B29" s="15">
-        <f t="shared" ref="B29:C29" si="6">B10+B11</f>
+        <f t="shared" ref="B29:C29" si="16">B10+B11</f>
         <v>148356</v>
       </c>
       <c r="C29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>156472</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:K29" si="7">D10+D11</f>
+        <f t="shared" ref="D29:K29" si="17">D10+D11</f>
         <v>563553</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>545404</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>903898</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>954026</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>469538</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>457908</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>319837</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>335371</v>
       </c>
       <c r="M29" s="2"/>
@@ -3066,43 +3066,43 @@
         <v>5</v>
       </c>
       <c r="B30" s="15">
-        <f t="shared" ref="B30" si="8">B12+B13</f>
+        <f t="shared" ref="B30" si="18">B12+B13</f>
         <v>181018</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" ref="C30:K30" si="9">C12+C13</f>
+        <f t="shared" ref="C30:K30" si="19">C12+C13</f>
         <v>186025</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>596207</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>588364</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1013554</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1032549</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>438050</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>432316</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>353713</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>373015</v>
       </c>
       <c r="M30" s="2"/>
@@ -3117,43 +3117,43 @@
         <v>6</v>
       </c>
       <c r="B31" s="15">
-        <f t="shared" ref="B31:C31" si="10">B14+B15</f>
+        <f t="shared" ref="B31:C31" si="20">B14+B15</f>
         <v>177194</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>185937</v>
       </c>
       <c r="D31" s="15">
-        <f t="shared" ref="D31:K31" si="11">D14+D15</f>
+        <f t="shared" ref="D31:K31" si="21">D14+D15</f>
         <v>568609</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>579796</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>854553</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>912469</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>382569</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>386717</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>327862</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>351810</v>
       </c>
       <c r="M31" s="2"/>
@@ -3168,43 +3168,43 @@
         <v>7</v>
       </c>
       <c r="B32" s="15">
-        <f t="shared" ref="B32:C32" si="12">B16+B17</f>
+        <f t="shared" ref="B32:C32" si="22">B16+B17</f>
         <v>115346</v>
       </c>
       <c r="C32" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>125543</v>
       </c>
       <c r="D32" s="15">
-        <f t="shared" ref="D32:K32" si="13">D16+D17</f>
+        <f t="shared" ref="D32:K32" si="23">D16+D17</f>
         <v>360953</v>
       </c>
       <c r="E32" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>392807</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>529237</v>
       </c>
       <c r="G32" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>606018</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>208110</v>
       </c>
       <c r="I32" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>227943</v>
       </c>
       <c r="J32" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>210343</v>
       </c>
       <c r="K32" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>228625</v>
       </c>
       <c r="M32" s="2"/>
@@ -3219,43 +3219,43 @@
         <v>8</v>
       </c>
       <c r="B33" s="15">
-        <f t="shared" ref="B33:C33" si="14">B18+B19+B20+B21+B22</f>
+        <f t="shared" ref="B33:C33" si="24">B18+B19+B20+B21+B22</f>
         <v>46142</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>69254</v>
       </c>
       <c r="D33" s="15">
-        <f t="shared" ref="D33:K33" si="15">D18+D19+D20+D21+D22</f>
+        <f t="shared" ref="D33:K33" si="25">D18+D19+D20+D21+D22</f>
         <v>161973</v>
       </c>
       <c r="E33" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>246471</v>
       </c>
       <c r="F33" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>263897</v>
       </c>
       <c r="G33" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>392117</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>99562</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>147077</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>101481</v>
       </c>
       <c r="K33" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>135692</v>
       </c>
       <c r="M33" s="2"/>
@@ -3270,43 +3270,43 @@
         <v>51</v>
       </c>
       <c r="B34" s="15">
-        <f t="shared" ref="B34" si="16">SUM(B26:B33)</f>
+        <f t="shared" ref="B34" si="26">SUM(B26:B33)</f>
         <v>1202702</v>
       </c>
       <c r="C34" s="15">
-        <f t="shared" ref="C34:K34" si="17">SUM(C26:C33)</f>
+        <f t="shared" ref="C34:K34" si="27">SUM(C26:C33)</f>
         <v>1239853</v>
       </c>
       <c r="D34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4286875</v>
       </c>
       <c r="E34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4287696</v>
       </c>
       <c r="F34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>7299589</v>
       </c>
       <c r="G34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>7473778</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>3528980</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>3496001</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>2567115</v>
       </c>
       <c r="K34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>2622649</v>
       </c>
     </row>
@@ -5634,8 +5634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AF0CAD-68AE-CE45-ABC1-78587383566A}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5651,42 +5651,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="52" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="86"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="12"/>
       <c r="F2" s="58"/>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="86"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="12"/>
       <c r="J2" s="58"/>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="86"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="17" thickBot="1">
       <c r="A3" s="60" t="s">
@@ -5717,7 +5717,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="82" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -5751,7 +5751,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="77"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="21" t="s">
         <v>86</v>
       </c>
@@ -5783,7 +5783,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="86" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -5817,7 +5817,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="77"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="21" t="s">
         <v>86</v>
       </c>
@@ -5849,7 +5849,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="86" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -5883,7 +5883,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="77"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="21" t="s">
         <v>86</v>
       </c>
@@ -5915,7 +5915,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="86" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -5949,7 +5949,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="77"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="21" t="s">
         <v>86</v>
       </c>
@@ -5981,7 +5981,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="86" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -6015,7 +6015,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" thickBot="1">
-      <c r="A13" s="78"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="55" t="s">
         <v>86</v>
       </c>
@@ -6048,42 +6048,42 @@
     </row>
     <row r="16" spans="1:12" ht="17" thickBot="1"/>
     <row r="17" spans="1:12" ht="17" thickBot="1">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="79"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="52" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="53"/>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="86"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="12"/>
       <c r="J18" s="58"/>
-      <c r="K18" s="85" t="s">
+      <c r="K18" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="86"/>
+      <c r="L18" s="81"/>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1">
       <c r="A19" s="60" t="s">
@@ -6114,7 +6114,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="82" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="24" t="s">
@@ -6148,7 +6148,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="77"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="21" t="s">
         <v>86</v>
       </c>
@@ -6180,7 +6180,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="86" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -6214,7 +6214,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="77"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="21" t="s">
         <v>86</v>
       </c>
@@ -6246,7 +6246,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="86" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -6280,7 +6280,7 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="77"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="21" t="s">
         <v>86</v>
       </c>
@@ -6312,7 +6312,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="86" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -6346,7 +6346,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="77"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="21" t="s">
         <v>86</v>
       </c>
@@ -6378,7 +6378,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="86" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -6412,7 +6412,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="17" thickBot="1">
-      <c r="A29" s="78"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="55" t="s">
         <v>86</v>
       </c>
@@ -6445,42 +6445,42 @@
     </row>
     <row r="32" spans="1:12" ht="17" thickBot="1"/>
     <row r="33" spans="1:12" ht="17" thickBot="1">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="82"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="79"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="52" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="53"/>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="12"/>
       <c r="F34" s="58"/>
-      <c r="G34" s="85" t="s">
+      <c r="G34" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="86"/>
+      <c r="H34" s="81"/>
       <c r="I34" s="12"/>
       <c r="J34" s="58"/>
-      <c r="K34" s="85" t="s">
+      <c r="K34" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="L34" s="86"/>
+      <c r="L34" s="81"/>
     </row>
     <row r="35" spans="1:12" ht="17" thickBot="1">
       <c r="A35" s="60" t="s">
@@ -6511,7 +6511,7 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="82" t="s">
         <v>67</v>
       </c>
       <c r="B36" s="24" t="s">
@@ -6545,7 +6545,7 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="77"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="21" t="s">
         <v>86</v>
       </c>
@@ -6577,7 +6577,7 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="86" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -6611,7 +6611,7 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="77"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="21" t="s">
         <v>86</v>
       </c>
@@ -6643,7 +6643,7 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="86" t="s">
         <v>74</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -6677,7 +6677,7 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="77"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="21" t="s">
         <v>86</v>
       </c>
@@ -6709,7 +6709,7 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="86" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -6743,7 +6743,7 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="77"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="21" t="s">
         <v>86</v>
       </c>
@@ -6775,7 +6775,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="86" t="s">
         <v>76</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -6809,7 +6809,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="17" thickBot="1">
-      <c r="A45" s="78"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="55" t="s">
         <v>86</v>
       </c>
@@ -6842,23 +6842,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
@@ -6869,6 +6852,23 @@
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6905,7 +6905,7 @@
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="90" t="s">
         <v>124</v>
       </c>
       <c r="H2" s="89" t="s">
@@ -6915,19 +6915,19 @@
       <c r="J2" s="89"/>
       <c r="K2" s="89"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="90" t="s">
+      <c r="R2" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
     </row>
     <row r="3" spans="2:21">
       <c r="B3" s="1" t="s">
@@ -6936,7 +6936,7 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="13" t="s">
         <v>87</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="90" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="89" t="s">
@@ -7405,7 +7405,7 @@
       <c r="U13" s="89"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="G14" s="88"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="3" t="s">
         <v>87</v>
       </c>
@@ -7870,7 +7870,7 @@
       </c>
     </row>
     <row r="24" spans="2:21" ht="16" customHeight="1">
-      <c r="G24" s="88" t="s">
+      <c r="G24" s="90" t="s">
         <v>124</v>
       </c>
       <c r="H24" s="89" t="s">
@@ -7898,7 +7898,7 @@
       <c r="B25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="88"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="3" t="s">
         <v>87</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="B35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="88" t="s">
+      <c r="G35" s="90" t="s">
         <v>124</v>
       </c>
       <c r="H35" s="89" t="s">
@@ -8409,7 +8409,7 @@
       <c r="C36" s="1">
         <v>302</v>
       </c>
-      <c r="G36" s="88"/>
+      <c r="G36" s="90"/>
       <c r="H36" s="3" t="s">
         <v>87</v>
       </c>
@@ -8874,7 +8874,7 @@
       <c r="C46" s="1">
         <v>1270</v>
       </c>
-      <c r="G46" s="88" t="s">
+      <c r="G46" s="90" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="89" t="s">
@@ -8908,7 +8908,7 @@
       <c r="D47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="88"/>
+      <c r="G47" s="90"/>
       <c r="H47" s="3" t="s">
         <v>87</v>
       </c>
@@ -10052,6 +10052,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="R35:U35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M24:P24"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="H46:K46"/>
@@ -10068,10 +10072,6 @@
     <mergeCell ref="M46:P46"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="M13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="R35:U35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M24:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
